--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\project\OtherAssets\Excle\A_Default\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A310088-116B-4AD3-A831-80C82ED09C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="4320" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +29,15 @@
     <t>遮挡区 是使用BuldMaskArea的id 1有遮挡 -1没有遮挡</t>
   </si>
   <si>
+    <t>区域图标</t>
+  </si>
+  <si>
+    <t>解锁需要的金币</t>
+  </si>
+  <si>
+    <t>区域描述</t>
+  </si>
+  <si>
     <t>ID_i</t>
   </si>
   <si>
@@ -47,15 +50,60 @@
     <t>MaskAreaId_i</t>
   </si>
   <si>
+    <t>icon_s</t>
+  </si>
+  <si>
+    <t>needCoin_i</t>
+  </si>
+  <si>
+    <t>desc_iam</t>
+  </si>
+  <si>
     <t>二楼包间</t>
   </si>
   <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>吧台用餐区</t>
+  </si>
+  <si>
+    <t>吧台</t>
+  </si>
+  <si>
+    <t>普通餐位区</t>
+  </si>
+  <si>
+    <t>一楼普通用餐区</t>
+  </si>
+  <si>
+    <t>餐厅入口</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>餐具区</t>
   </si>
   <si>
+    <t>取餐区</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>一楼露台</t>
+  </si>
+  <si>
+    <t>露台</t>
+  </si>
+  <si>
     <t>厨房</t>
   </si>
   <si>
+    <t>餐厅出口</t>
+  </si>
+  <si>
     <t>说明</t>
   </si>
   <si>
@@ -74,9 +122,6 @@
     <t>1楼包间区</t>
   </si>
   <si>
-    <t>1_1</t>
-  </si>
-  <si>
     <t>2楼餐厅</t>
   </si>
   <si>
@@ -87,31 +132,19 @@
   </si>
   <si>
     <t>1_3</t>
-  </si>
-  <si>
-    <t>吧台用餐区</t>
-  </si>
-  <si>
-    <t>普通餐位区</t>
-  </si>
-  <si>
-    <t>餐厅入口</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>一楼露台</t>
-  </si>
-  <si>
-    <t>餐厅出口</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,26 +156,355 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -150,11 +512,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -162,27 +766,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -469,26 +1126,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="54.125" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="110.1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,167 +1162,267 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>201</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3">
+        <v>202</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
+        <v>203</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>204</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <v>205</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3">
+        <v>206</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3">
+        <v>207</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="D11" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>208</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -669,7 +1430,7 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,88 +1438,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:3">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:3">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:3">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:3">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:3">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:3">
       <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\project\OtherAssets\Excle\A_Default\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A310088-116B-4AD3-A831-80C82ED09C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="4320" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -50,12 +44,30 @@
     <t>二楼包间</t>
   </si>
   <si>
+    <t>一楼包间</t>
+  </si>
+  <si>
+    <t>一楼普通座位</t>
+  </si>
+  <si>
+    <t>入口（弃用）</t>
+  </si>
+  <si>
     <t>餐具区</t>
   </si>
   <si>
+    <t>厕所（弃用）</t>
+  </si>
+  <si>
+    <t>露台</t>
+  </si>
+  <si>
     <t>厨房</t>
   </si>
   <si>
+    <t>出口（弃用）</t>
+  </si>
+  <si>
     <t>说明</t>
   </si>
   <si>
@@ -87,31 +99,19 @@
   </si>
   <si>
     <t>1_3</t>
-  </si>
-  <si>
-    <t>吧台用餐区</t>
-  </si>
-  <si>
-    <t>普通餐位区</t>
-  </si>
-  <si>
-    <t>餐厅入口</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>一楼露台</t>
-  </si>
-  <si>
-    <t>餐厅出口</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,26 +123,348 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -150,9 +472,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -172,17 +736,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -469,26 +1077,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="54.125" customWidth="1"/>
+    <col min="3" max="3" width="35.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="54.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="110.1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -516,7 +1124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -530,12 +1138,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -544,12 +1152,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -558,12 +1166,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -572,12 +1180,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -586,12 +1194,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -600,12 +1208,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -614,12 +1222,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -628,12 +1236,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -642,26 +1250,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -669,7 +1278,7 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,88 +1286,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:3">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:3">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:3">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:3">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:3">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:3">
       <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">是否解锁 1解锁 </t>
   </si>
   <si>
-    <t>遮挡区 是使用BuldMaskArea的id 1有遮挡 -1没有遮挡</t>
+    <t>遮挡区 是使用BuldMaskArea的id -1没有遮挡</t>
   </si>
   <si>
     <t>区域图标</t>
@@ -139,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -167,14 +167,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,25 +288,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,92 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,187 +319,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,15 +510,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,50 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,16 +557,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,146 +628,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,15 +1132,15 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.1296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.8796296296296" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
@@ -1173,13 +1170,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1202,11 +1199,11 @@
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1222,10 +1219,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
@@ -1248,7 +1245,7 @@
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
@@ -1271,13 +1268,13 @@
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>-1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3">
@@ -1294,11 +1291,11 @@
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -1317,8 +1314,8 @@
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>-1</v>
@@ -1340,7 +1337,7 @@
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
@@ -1363,7 +1360,7 @@
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3">
@@ -1386,13 +1383,13 @@
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
         <v>-1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="3">
@@ -1403,8 +1400,8 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1422,7 +1419,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>

--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="26115" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,9 @@
     <t>区域图标</t>
   </si>
   <si>
+    <t>区域标题</t>
+  </si>
+  <si>
     <t>解锁需要的金币</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>icon_s</t>
   </si>
   <si>
+    <t>title_s</t>
+  </si>
+  <si>
     <t>needCoin_i</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>吧台</t>
   </si>
   <si>
+    <t>吧台标题</t>
+  </si>
+  <si>
     <t>普通餐位区</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
   </si>
   <si>
     <t>厨房</t>
+  </si>
+  <si>
+    <t>厨房标题</t>
   </si>
   <si>
     <t>餐厅出口</t>
@@ -141,8 +153,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,62 +186,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,12 +216,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,24 +246,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,24 +284,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +522,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,56 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,9 +566,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,24 +1141,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.1296296296296" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.8796296296296" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="26.1333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.8833333333333" style="3" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="110.1" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="110.1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,36 +1180,42 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1206,21 +1224,24 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
         <v>200</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1229,21 +1250,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>201</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3">
-        <v>201</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1252,21 +1276,24 @@
         <v>-1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
         <v>202</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1275,21 +1302,24 @@
         <v>-1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3">
         <v>203</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1298,21 +1328,24 @@
         <v>-1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3">
         <v>204</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1321,21 +1354,24 @@
         <v>-1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3">
         <v>205</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1344,44 +1380,50 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3">
         <v>206</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>-1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
         <v>207</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1390,13 +1432,16 @@
         <v>-1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3">
         <v>208</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1419,7 +1464,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1435,24 +1480,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1460,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1474,10 +1519,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1488,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0</v>

--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26115" windowHeight="11310"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -151,9 +151,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -179,12 +179,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -193,7 +262,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,121 +321,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -331,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +529,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -571,30 +556,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,7 +579,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22905" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -68,52 +68,85 @@
     <t>二楼包间</t>
   </si>
   <si>
+    <t>PrivateRoom_Area</t>
+  </si>
+  <si>
+    <t>PrivateRoom</t>
+  </si>
+  <si>
     <t>1_1</t>
   </si>
   <si>
     <t>吧台用餐区</t>
   </si>
   <si>
-    <t>吧台</t>
-  </si>
-  <si>
-    <t>吧台标题</t>
+    <t>BarCounter_Area</t>
+  </si>
+  <si>
+    <t>BarCounter</t>
   </si>
   <si>
     <t>普通餐位区</t>
   </si>
   <si>
-    <t>一楼普通用餐区</t>
+    <t>CommonDining_Area</t>
+  </si>
+  <si>
+    <t>DiningArea</t>
   </si>
   <si>
     <t>餐厅入口</t>
   </si>
   <si>
+    <t>Reception_Area</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>餐具区</t>
+  </si>
+  <si>
+    <t>Tableware_Area</t>
+  </si>
+  <si>
+    <t>TablewareArea</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>Toilet_Area</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>一楼露台</t>
+  </si>
+  <si>
+    <t>Terrace_Area</t>
+  </si>
+  <si>
+    <t>Terrace</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>Kitchen_Area</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>餐厅出口</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>餐具区</t>
-  </si>
-  <si>
-    <t>取餐区</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>一楼露台</t>
-  </si>
-  <si>
-    <t>露台</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>厨房标题</t>
-  </si>
-  <si>
-    <t>餐厅出口</t>
+    <t>Exit</t>
   </si>
   <si>
     <t>说明</t>
@@ -152,8 +185,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -179,6 +212,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,45 +227,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +302,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,37 +324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,9 +340,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,22 +352,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -331,25 +364,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,73 +514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,79 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,15 +555,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,17 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,7 +592,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,8 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +617,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1177,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1153,7 +1186,8 @@
     <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.1333333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.8833333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
@@ -1224,16 +1258,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
         <v>200</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1241,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1250,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3">
         <v>201</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1267,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1276,16 +1310,16 @@
         <v>-1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3">
         <v>202</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1293,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1302,16 +1336,16 @@
         <v>-1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3">
         <v>203</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1319,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1328,16 +1362,16 @@
         <v>-1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>204</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1345,7 +1379,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1354,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3">
         <v>205</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1371,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1380,16 +1414,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3">
         <v>206</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1397,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1406,16 +1440,16 @@
         <v>-1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3">
         <v>207</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1423,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1432,16 +1466,16 @@
         <v>-1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3">
         <v>208</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1480,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1491,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1505,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1519,10 +1553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1533,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>0</v>

--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22905" windowHeight="10950"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -29,18 +29,6 @@
     <t>遮挡区 是使用BuldMaskArea的id -1没有遮挡</t>
   </si>
   <si>
-    <t>区域图标</t>
-  </si>
-  <si>
-    <t>区域标题</t>
-  </si>
-  <si>
-    <t>解锁需要的金币</t>
-  </si>
-  <si>
-    <t>区域描述</t>
-  </si>
-  <si>
     <t>ID_i</t>
   </si>
   <si>
@@ -53,118 +41,52 @@
     <t>MaskAreaId_i</t>
   </si>
   <si>
-    <t>icon_s</t>
-  </si>
-  <si>
-    <t>title_s</t>
-  </si>
-  <si>
-    <t>needCoin_i</t>
-  </si>
-  <si>
-    <t>desc_iam</t>
-  </si>
-  <si>
     <t>二楼包间</t>
   </si>
   <si>
-    <t>PrivateRoom_Area</t>
-  </si>
-  <si>
-    <t>PrivateRoom</t>
+    <t>吧台用餐区</t>
+  </si>
+  <si>
+    <t>普通餐位区</t>
+  </si>
+  <si>
+    <t>餐厅入口</t>
+  </si>
+  <si>
+    <t>餐具区</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>一楼露台</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>餐厅出口</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>解锁花费</t>
+  </si>
+  <si>
+    <t>bz_s</t>
+  </si>
+  <si>
+    <t>Info_iam</t>
+  </si>
+  <si>
+    <t>costCoin_i</t>
+  </si>
+  <si>
+    <t>1楼包间区</t>
   </si>
   <si>
     <t>1_1</t>
-  </si>
-  <si>
-    <t>吧台用餐区</t>
-  </si>
-  <si>
-    <t>BarCounter_Area</t>
-  </si>
-  <si>
-    <t>BarCounter</t>
-  </si>
-  <si>
-    <t>普通餐位区</t>
-  </si>
-  <si>
-    <t>CommonDining_Area</t>
-  </si>
-  <si>
-    <t>DiningArea</t>
-  </si>
-  <si>
-    <t>餐厅入口</t>
-  </si>
-  <si>
-    <t>Reception_Area</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>餐具区</t>
-  </si>
-  <si>
-    <t>Tableware_Area</t>
-  </si>
-  <si>
-    <t>TablewareArea</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>Toilet_Area</t>
-  </si>
-  <si>
-    <t>Toilet</t>
-  </si>
-  <si>
-    <t>一楼露台</t>
-  </si>
-  <si>
-    <t>Terrace_Area</t>
-  </si>
-  <si>
-    <t>Terrace</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>Kitchen_Area</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>餐厅出口</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>解锁花费</t>
-  </si>
-  <si>
-    <t>bz_s</t>
-  </si>
-  <si>
-    <t>Info_iam</t>
-  </si>
-  <si>
-    <t>costCoin_i</t>
-  </si>
-  <si>
-    <t>1楼包间区</t>
   </si>
   <si>
     <t>2楼餐厅</t>
@@ -184,12 +106,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,89 +127,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +180,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -309,9 +225,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,25 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,19 +279,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,163 +381,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,21 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,6 +499,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -621,22 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,16 +561,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,137 +588,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -815,12 +730,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1174,13 +1083,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.1333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
@@ -1189,10 +1098,12 @@
     <col min="5" max="5" width="20.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="32.75" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="110.1" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,51 +1116,35 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1257,25 +1152,17 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3">
-        <v>200</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1283,25 +1170,17 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3">
-        <v>201</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1309,25 +1188,17 @@
       <c r="D5" s="3">
         <v>-1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3">
-        <v>202</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1335,25 +1206,17 @@
       <c r="D6" s="3">
         <v>-1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3">
-        <v>203</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1361,25 +1224,19 @@
       <c r="D7" s="3">
         <v>-1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3">
-        <v>204</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1387,25 +1244,19 @@
       <c r="D8" s="3">
         <v>-1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3">
-        <v>205</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1413,25 +1264,19 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3">
-        <v>206</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1439,25 +1284,19 @@
       <c r="D10" s="3">
         <v>-1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3">
-        <v>207</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1465,22 +1304,81 @@
       <c r="D11" s="3">
         <v>-1</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3">
-        <v>208</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12"/>
+      <c r="B12" s="5"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1514,24 +1412,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1539,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1553,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1567,10 +1465,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>

--- a/project/OtherAssets/Excle/A_Default/区域表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22905" windowHeight="10950"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildArea" sheetId="4" r:id="rId1"/>
@@ -185,9 +185,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -211,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -219,6 +227,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,67 +243,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,32 +309,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,16 +341,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,163 +370,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,16 +573,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -606,6 +617,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -620,51 +655,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,16 +1177,16 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.1333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.8833333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.1296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.8796296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.3796296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
@@ -1434,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>-1</v>
@@ -1498,7 +1498,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
